--- a/data/nzd0428/nzd0428.xlsx
+++ b/data/nzd0428/nzd0428.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG349"/>
+  <dimension ref="A1:AG354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30548,9 +30548,7 @@
       <c r="AC347" t="n">
         <v>407.0461538461539</v>
       </c>
-      <c r="AD347" t="n">
-        <v>425.8233333333333</v>
-      </c>
+      <c r="AD347" t="inlineStr"/>
       <c r="AE347" t="inlineStr"/>
       <c r="AF347" t="inlineStr"/>
       <c r="AG347" t="inlineStr">
@@ -30649,9 +30647,7 @@
       <c r="AC348" t="n">
         <v>447.83</v>
       </c>
-      <c r="AD348" t="n">
-        <v>446.7133333333333</v>
-      </c>
+      <c r="AD348" t="inlineStr"/>
       <c r="AE348" t="inlineStr"/>
       <c r="AF348" t="n">
         <v>380.745</v>
@@ -30760,6 +30756,505 @@
       <c r="AG349" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>352.885</v>
+      </c>
+      <c r="C350" t="n">
+        <v>352.8166666666667</v>
+      </c>
+      <c r="D350" t="n">
+        <v>367.34</v>
+      </c>
+      <c r="E350" t="n">
+        <v>364.42</v>
+      </c>
+      <c r="F350" t="n">
+        <v>364.04</v>
+      </c>
+      <c r="G350" t="n">
+        <v>373.74</v>
+      </c>
+      <c r="H350" t="n">
+        <v>394.95</v>
+      </c>
+      <c r="I350" t="n">
+        <v>391.3322222222222</v>
+      </c>
+      <c r="J350" t="n">
+        <v>389.82</v>
+      </c>
+      <c r="K350" t="n">
+        <v>394.74</v>
+      </c>
+      <c r="L350" t="n">
+        <v>406.4566666666667</v>
+      </c>
+      <c r="M350" t="n">
+        <v>402.1833333333333</v>
+      </c>
+      <c r="N350" t="n">
+        <v>402.2415384615384</v>
+      </c>
+      <c r="O350" t="n">
+        <v>405.13</v>
+      </c>
+      <c r="P350" t="n">
+        <v>407.48</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>402.7266666666667</v>
+      </c>
+      <c r="R350" t="n">
+        <v>401.5466666666667</v>
+      </c>
+      <c r="S350" t="n">
+        <v>393.7566666666667</v>
+      </c>
+      <c r="T350" t="n">
+        <v>397.1866666666667</v>
+      </c>
+      <c r="U350" t="n">
+        <v>397.8115384615385</v>
+      </c>
+      <c r="V350" t="n">
+        <v>397.5171428571429</v>
+      </c>
+      <c r="W350" t="n">
+        <v>401.8115384615385</v>
+      </c>
+      <c r="X350" t="n">
+        <v>405.4115384615384</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>410.55</v>
+      </c>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr"/>
+      <c r="AE350" t="inlineStr"/>
+      <c r="AF350" t="inlineStr"/>
+      <c r="AG350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="n">
+        <v>342.95</v>
+      </c>
+      <c r="D351" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="E351" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="F351" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="G351" t="n">
+        <v>361.84</v>
+      </c>
+      <c r="H351" t="n">
+        <v>374.45</v>
+      </c>
+      <c r="I351" t="n">
+        <v>374.28</v>
+      </c>
+      <c r="J351" t="n">
+        <v>374.71</v>
+      </c>
+      <c r="K351" t="n">
+        <v>379.4190909090909</v>
+      </c>
+      <c r="L351" t="n">
+        <v>392.83</v>
+      </c>
+      <c r="M351" t="n">
+        <v>398.99</v>
+      </c>
+      <c r="N351" t="n">
+        <v>394.3330769230769</v>
+      </c>
+      <c r="O351" t="n">
+        <v>389.009090909091</v>
+      </c>
+      <c r="P351" t="n">
+        <v>387.6090909090909</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>387.26</v>
+      </c>
+      <c r="R351" t="n">
+        <v>388.38</v>
+      </c>
+      <c r="S351" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="T351" t="n">
+        <v>383.17</v>
+      </c>
+      <c r="U351" t="n">
+        <v>379.3630769230769</v>
+      </c>
+      <c r="V351" t="n">
+        <v>383.7442857142857</v>
+      </c>
+      <c r="W351" t="n">
+        <v>390.8530769230769</v>
+      </c>
+      <c r="X351" t="n">
+        <v>390.0030769230769</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>407.629090909091</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>428.59</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>439.6330769230769</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>450.03</v>
+      </c>
+      <c r="AC351" t="inlineStr"/>
+      <c r="AD351" t="inlineStr"/>
+      <c r="AE351" t="n">
+        <v>563.1142857142856</v>
+      </c>
+      <c r="AF351" t="inlineStr"/>
+      <c r="AG351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>366.205</v>
+      </c>
+      <c r="C352" t="n">
+        <v>350.21</v>
+      </c>
+      <c r="D352" t="n">
+        <v>367.22</v>
+      </c>
+      <c r="E352" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="F352" t="n">
+        <v>373.29</v>
+      </c>
+      <c r="G352" t="n">
+        <v>381.48</v>
+      </c>
+      <c r="H352" t="n">
+        <v>399.22</v>
+      </c>
+      <c r="I352" t="n">
+        <v>395.5033333333333</v>
+      </c>
+      <c r="J352" t="n">
+        <v>390.39</v>
+      </c>
+      <c r="K352" t="n">
+        <v>398.0909090909091</v>
+      </c>
+      <c r="L352" t="n">
+        <v>410.42</v>
+      </c>
+      <c r="M352" t="n">
+        <v>406.47</v>
+      </c>
+      <c r="N352" t="n">
+        <v>405.1938461538462</v>
+      </c>
+      <c r="O352" t="n">
+        <v>404.4109090909091</v>
+      </c>
+      <c r="P352" t="n">
+        <v>407.5609090909091</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>401.96</v>
+      </c>
+      <c r="R352" t="n">
+        <v>402.28</v>
+      </c>
+      <c r="S352" t="n">
+        <v>400.48</v>
+      </c>
+      <c r="T352" t="n">
+        <v>404.92</v>
+      </c>
+      <c r="U352" t="n">
+        <v>401.9138461538461</v>
+      </c>
+      <c r="V352" t="n">
+        <v>401.99</v>
+      </c>
+      <c r="W352" t="n">
+        <v>402.8838461538462</v>
+      </c>
+      <c r="X352" t="n">
+        <v>409.1138461538461</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>427.680909090909</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>432.65</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>449.0138461538461</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>465.77</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>451.3538461538461</v>
+      </c>
+      <c r="AD352" t="inlineStr"/>
+      <c r="AE352" t="inlineStr"/>
+      <c r="AF352" t="n">
+        <v>367.525</v>
+      </c>
+      <c r="AG352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>372.525</v>
+      </c>
+      <c r="C353" t="n">
+        <v>341.22</v>
+      </c>
+      <c r="D353" t="n">
+        <v>350.49</v>
+      </c>
+      <c r="E353" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>358.65</v>
+      </c>
+      <c r="G353" t="n">
+        <v>368.37</v>
+      </c>
+      <c r="H353" t="n">
+        <v>372.49</v>
+      </c>
+      <c r="I353" t="n">
+        <v>379.5966666666667</v>
+      </c>
+      <c r="J353" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="K353" t="n">
+        <v>391.7545454545455</v>
+      </c>
+      <c r="L353" t="n">
+        <v>395.02</v>
+      </c>
+      <c r="M353" t="n">
+        <v>401.87</v>
+      </c>
+      <c r="N353" t="n">
+        <v>399.1346153846154</v>
+      </c>
+      <c r="O353" t="n">
+        <v>395.3545454545454</v>
+      </c>
+      <c r="P353" t="n">
+        <v>393.7745454545454</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>391.66</v>
+      </c>
+      <c r="R353" t="n">
+        <v>387.85</v>
+      </c>
+      <c r="S353" t="n">
+        <v>387.42</v>
+      </c>
+      <c r="T353" t="n">
+        <v>395.45</v>
+      </c>
+      <c r="U353" t="n">
+        <v>398.4546153846154</v>
+      </c>
+      <c r="V353" t="n">
+        <v>406.5328571428572</v>
+      </c>
+      <c r="W353" t="n">
+        <v>403.3546153846154</v>
+      </c>
+      <c r="X353" t="n">
+        <v>403.3546153846154</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>414.8045454545455</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>437.94</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>473.0346153846153</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>496.63</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>524.7546153846154</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>536.02</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>524.5228571428571</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>423.425</v>
+      </c>
+      <c r="AG353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>389.92</v>
+      </c>
+      <c r="C354" t="n">
+        <v>354.59</v>
+      </c>
+      <c r="D354" t="n">
+        <v>365.08</v>
+      </c>
+      <c r="E354" t="n">
+        <v>366.36</v>
+      </c>
+      <c r="F354" t="n">
+        <v>369.17</v>
+      </c>
+      <c r="G354" t="n">
+        <v>380.92</v>
+      </c>
+      <c r="H354" t="n">
+        <v>394.04</v>
+      </c>
+      <c r="I354" t="n">
+        <v>392.8966666666667</v>
+      </c>
+      <c r="J354" t="n">
+        <v>394.28</v>
+      </c>
+      <c r="K354" t="n">
+        <v>399.73</v>
+      </c>
+      <c r="L354" t="n">
+        <v>407.48</v>
+      </c>
+      <c r="M354" t="n">
+        <v>403.02</v>
+      </c>
+      <c r="N354" t="n">
+        <v>399.8838461538462</v>
+      </c>
+      <c r="O354" t="n">
+        <v>403.12</v>
+      </c>
+      <c r="P354" t="n">
+        <v>403.1</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>400.67</v>
+      </c>
+      <c r="R354" t="n">
+        <v>398.72</v>
+      </c>
+      <c r="S354" t="n">
+        <v>400.23</v>
+      </c>
+      <c r="T354" t="n">
+        <v>411.92</v>
+      </c>
+      <c r="U354" t="n">
+        <v>412.6338461538462</v>
+      </c>
+      <c r="V354" t="n">
+        <v>406.3385714285714</v>
+      </c>
+      <c r="W354" t="n">
+        <v>411.1838461538461</v>
+      </c>
+      <c r="X354" t="n">
+        <v>425.9138461538461</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>438.73</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>454.94</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>471.6338461538462</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>489.42</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>500.6038461538461</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>513.52</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>497.6285714285714</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="AG354" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -30774,7 +31269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34502,6 +34997,56 @@
       </c>
       <c r="B372" t="n">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -34670,28 +35215,28 @@
         <v>0.1066</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8109252271082676</v>
+        <v>-0.7751511065291898</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09265670801370274</v>
+        <v>0.08652502950830909</v>
       </c>
       <c r="M2" t="n">
-        <v>14.15436435820257</v>
+        <v>14.19311104772473</v>
       </c>
       <c r="N2" t="n">
-        <v>325.6476920783807</v>
+        <v>325.7005183191114</v>
       </c>
       <c r="O2" t="n">
-        <v>18.04571118239402</v>
+        <v>18.04717480158907</v>
       </c>
       <c r="P2" t="n">
-        <v>378.2661189839422</v>
+        <v>377.9076688915951</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34747,28 +35292,28 @@
         <v>0.0743</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.086691322803875</v>
+        <v>-1.071592971976281</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1699217904278804</v>
+        <v>0.1706059229995319</v>
       </c>
       <c r="M3" t="n">
-        <v>13.65446117670973</v>
+        <v>13.52259248480363</v>
       </c>
       <c r="N3" t="n">
-        <v>292.6837165609056</v>
+        <v>288.4063561271618</v>
       </c>
       <c r="O3" t="n">
-        <v>17.10800153614985</v>
+        <v>16.98253091053162</v>
       </c>
       <c r="P3" t="n">
-        <v>371.3145596707313</v>
+        <v>371.1637804999976</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34824,28 +35369,28 @@
         <v>0.0609</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.019450587941479</v>
+        <v>-0.9863968118662999</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1461071945338355</v>
+        <v>0.1412067533400447</v>
       </c>
       <c r="M4" t="n">
-        <v>14.40110353420051</v>
+        <v>14.30184023028007</v>
       </c>
       <c r="N4" t="n">
-        <v>311.717043887653</v>
+        <v>308.9091746374492</v>
       </c>
       <c r="O4" t="n">
-        <v>17.65551029813789</v>
+        <v>17.57581220420408</v>
       </c>
       <c r="P4" t="n">
-        <v>376.1197049620456</v>
+        <v>375.7897380656901</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34901,28 +35446,28 @@
         <v>0.0623</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9525242806204751</v>
+        <v>-0.8968742477924893</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K5" t="n">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1174077187205361</v>
+        <v>0.1073361730958667</v>
       </c>
       <c r="M5" t="n">
-        <v>15.41758426905838</v>
+        <v>15.38471414634797</v>
       </c>
       <c r="N5" t="n">
-        <v>356.3628364679913</v>
+        <v>355.436214810435</v>
       </c>
       <c r="O5" t="n">
-        <v>18.87757496258434</v>
+        <v>18.85301606667843</v>
       </c>
       <c r="P5" t="n">
-        <v>369.3297555712876</v>
+        <v>368.7809477443507</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34978,28 +35523,28 @@
         <v>0.0638</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.019274082318625</v>
+        <v>-0.9433784702065779</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K6" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1123369050544697</v>
+        <v>0.09903301245558338</v>
       </c>
       <c r="M6" t="n">
-        <v>16.84512776867168</v>
+        <v>16.84508700075028</v>
       </c>
       <c r="N6" t="n">
-        <v>422.6535214254026</v>
+        <v>424.5053911897818</v>
       </c>
       <c r="O6" t="n">
-        <v>20.55853889325315</v>
+        <v>20.60352861016243</v>
       </c>
       <c r="P6" t="n">
-        <v>366.9663211630487</v>
+        <v>366.2185421511277</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35055,28 +35600,28 @@
         <v>0.0634</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.201047691675082</v>
+        <v>-1.099535018298328</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1308897474934344</v>
+        <v>0.1124323225536876</v>
       </c>
       <c r="M7" t="n">
-        <v>18.19530266099049</v>
+        <v>18.32701399809193</v>
       </c>
       <c r="N7" t="n">
-        <v>490.6035096335666</v>
+        <v>497.5931788251897</v>
       </c>
       <c r="O7" t="n">
-        <v>22.14957131940857</v>
+        <v>22.30679669574253</v>
       </c>
       <c r="P7" t="n">
-        <v>374.0179878890098</v>
+        <v>373.0060473393082</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35132,28 +35677,28 @@
         <v>0.0522</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.9191673150544782</v>
+        <v>-0.8055924297356963</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K8" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06775233304633188</v>
+        <v>0.05309301637052721</v>
       </c>
       <c r="M8" t="n">
-        <v>19.77814028380571</v>
+        <v>19.90943652822249</v>
       </c>
       <c r="N8" t="n">
-        <v>590.2722907747635</v>
+        <v>598.9059845001847</v>
       </c>
       <c r="O8" t="n">
-        <v>24.2955199733359</v>
+        <v>24.4725557410783</v>
       </c>
       <c r="P8" t="n">
-        <v>378.8983947716445</v>
+        <v>377.7614930604765</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35209,28 +35754,28 @@
         <v>0.0545</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.992399060165075</v>
+        <v>-0.8566669148528044</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K9" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08243592288131718</v>
+        <v>0.06233636541745335</v>
       </c>
       <c r="M9" t="n">
-        <v>19.32074546890805</v>
+        <v>19.59334221528303</v>
       </c>
       <c r="N9" t="n">
-        <v>552.4603812344634</v>
+        <v>567.2702926600343</v>
       </c>
       <c r="O9" t="n">
-        <v>23.50447577025413</v>
+        <v>23.8174367357202</v>
       </c>
       <c r="P9" t="n">
-        <v>375.1471570856538</v>
+        <v>373.7835500885146</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -35286,28 +35831,28 @@
         <v>0.0673</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.187362251574653</v>
+        <v>-1.040780193672971</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1215650992937152</v>
+        <v>0.09464979462936374</v>
       </c>
       <c r="M10" t="n">
-        <v>18.69843055908349</v>
+        <v>19.11311825366113</v>
       </c>
       <c r="N10" t="n">
-        <v>525.712653024248</v>
+        <v>545.4931365703737</v>
       </c>
       <c r="O10" t="n">
-        <v>22.92842456481143</v>
+        <v>23.35579449666343</v>
       </c>
       <c r="P10" t="n">
-        <v>375.9895310243047</v>
+        <v>374.5543408439909</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -35363,28 +35908,28 @@
         <v>0.0771</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.087567469844308</v>
+        <v>-0.9361048063884558</v>
       </c>
       <c r="J11" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K11" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L11" t="n">
-        <v>0.102676697970708</v>
+        <v>0.07658552616643255</v>
       </c>
       <c r="M11" t="n">
-        <v>19.227658381356</v>
+        <v>19.67732576332964</v>
       </c>
       <c r="N11" t="n">
-        <v>539.6742315970732</v>
+        <v>562.3968280094272</v>
       </c>
       <c r="O11" t="n">
-        <v>23.23088959977799</v>
+        <v>23.71490729497856</v>
       </c>
       <c r="P11" t="n">
-        <v>377.3934253225418</v>
+        <v>375.9188873694195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -35440,28 +35985,28 @@
         <v>0.0772</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.117689908218017</v>
+        <v>-0.9479600310393183</v>
       </c>
       <c r="J12" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K12" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1132069058641098</v>
+        <v>0.0810919964429172</v>
       </c>
       <c r="M12" t="n">
-        <v>18.44828902688748</v>
+        <v>18.95923788222928</v>
       </c>
       <c r="N12" t="n">
-        <v>499.0843618223921</v>
+        <v>529.7052990108411</v>
       </c>
       <c r="O12" t="n">
-        <v>22.34019610080431</v>
+        <v>23.01532747998258</v>
       </c>
       <c r="P12" t="n">
-        <v>382.9719317928949</v>
+        <v>381.2977666058668</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -35517,28 +36062,28 @@
         <v>0.1021</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.199233832061854</v>
+        <v>-1.034019766482064</v>
       </c>
       <c r="J13" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K13" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1204091022752327</v>
+        <v>0.08983386362720169</v>
       </c>
       <c r="M13" t="n">
-        <v>19.29153276623152</v>
+        <v>19.73725494471588</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0657014673745</v>
+        <v>573.1722684807709</v>
       </c>
       <c r="O13" t="n">
-        <v>23.34664218827569</v>
+        <v>23.94101644627418</v>
       </c>
       <c r="P13" t="n">
-        <v>385.3967466438784</v>
+        <v>383.7908897019179</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -35594,28 +36139,28 @@
         <v>0.083</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.101120509337533</v>
+        <v>-0.9320264707538551</v>
       </c>
       <c r="J14" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K14" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1061195781796259</v>
+        <v>0.07564883516506526</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9508706805048</v>
+        <v>19.48684737961401</v>
       </c>
       <c r="N14" t="n">
-        <v>535.4176152226097</v>
+        <v>566.9102378982979</v>
       </c>
       <c r="O14" t="n">
-        <v>23.13909279169366</v>
+        <v>23.80987689800806</v>
       </c>
       <c r="P14" t="n">
-        <v>378.8296212805301</v>
+        <v>377.1848957844253</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -35671,28 +36216,28 @@
         <v>0.075</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9179051085178137</v>
+        <v>-0.736925601190332</v>
       </c>
       <c r="J15" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K15" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07094732310254526</v>
+        <v>0.04514412906823995</v>
       </c>
       <c r="M15" t="n">
-        <v>19.38240111467316</v>
+        <v>19.97124240524921</v>
       </c>
       <c r="N15" t="n">
-        <v>561.2682927314539</v>
+        <v>595.9038478883115</v>
       </c>
       <c r="O15" t="n">
-        <v>23.69110155166817</v>
+        <v>24.41114188005779</v>
       </c>
       <c r="P15" t="n">
-        <v>371.7247987606297</v>
+        <v>369.9344042552525</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -35748,28 +36293,28 @@
         <v>0.0698</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9304195796032967</v>
+        <v>-0.7284679081359328</v>
       </c>
       <c r="J16" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K16" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07142202464131808</v>
+        <v>0.04271777715490199</v>
       </c>
       <c r="M16" t="n">
-        <v>19.74394316269126</v>
+        <v>20.43806447188318</v>
       </c>
       <c r="N16" t="n">
-        <v>569.3773998106457</v>
+        <v>613.7933958389821</v>
       </c>
       <c r="O16" t="n">
-        <v>23.86163028400712</v>
+        <v>24.77485410328348</v>
       </c>
       <c r="P16" t="n">
-        <v>367.5588832393773</v>
+        <v>365.5560193558547</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -35825,28 +36370,28 @@
         <v>0.0785</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8266112967747747</v>
+        <v>-0.6278785756761943</v>
       </c>
       <c r="J17" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K17" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05631704662169035</v>
+        <v>0.03172157001534137</v>
       </c>
       <c r="M17" t="n">
-        <v>19.70861828886204</v>
+        <v>20.34482047794559</v>
       </c>
       <c r="N17" t="n">
-        <v>582.0953330443361</v>
+        <v>624.4186208993841</v>
       </c>
       <c r="O17" t="n">
-        <v>24.12665192363698</v>
+        <v>24.98836971271604</v>
       </c>
       <c r="P17" t="n">
-        <v>362.316841952471</v>
+        <v>360.3630439039695</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -35902,28 +36447,28 @@
         <v>0.07389999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.724765546390248</v>
+        <v>-0.5326095889423016</v>
       </c>
       <c r="J18" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04402843943008206</v>
+        <v>0.02302809389521976</v>
       </c>
       <c r="M18" t="n">
-        <v>20.01201443461565</v>
+        <v>20.75066945752967</v>
       </c>
       <c r="N18" t="n">
-        <v>587.3097377246636</v>
+        <v>631.1374292806245</v>
       </c>
       <c r="O18" t="n">
-        <v>24.23447415820413</v>
+        <v>25.12244871187171</v>
       </c>
       <c r="P18" t="n">
-        <v>357.0232549985968</v>
+        <v>355.1313174314384</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -35979,28 +36524,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.6100535601116835</v>
+        <v>-0.4192881217603088</v>
       </c>
       <c r="J19" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K19" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03039735582949721</v>
+        <v>0.01386231402258942</v>
       </c>
       <c r="M19" t="n">
-        <v>20.20871359990249</v>
+        <v>20.97946946290702</v>
       </c>
       <c r="N19" t="n">
-        <v>619.2074000925678</v>
+        <v>663.4591205048212</v>
       </c>
       <c r="O19" t="n">
-        <v>24.88387831694585</v>
+        <v>25.75770021769842</v>
       </c>
       <c r="P19" t="n">
-        <v>351.5043763671159</v>
+        <v>349.6186011294066</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -36056,28 +36601,28 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.5010618643754452</v>
+        <v>-0.2840185181270392</v>
       </c>
       <c r="J20" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K20" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0190564522534884</v>
+        <v>0.005792599902267104</v>
       </c>
       <c r="M20" t="n">
-        <v>21.26190413219509</v>
+        <v>22.23354887288195</v>
       </c>
       <c r="N20" t="n">
-        <v>668.9045931451176</v>
+        <v>728.6421408574932</v>
       </c>
       <c r="O20" t="n">
-        <v>25.86318992593755</v>
+        <v>26.99337216535743</v>
       </c>
       <c r="P20" t="n">
-        <v>346.962093763287</v>
+        <v>344.7977050528391</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -36133,28 +36678,28 @@
         <v>0.08459999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4033174883616434</v>
+        <v>-0.1740505865013756</v>
       </c>
       <c r="J21" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K21" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01158558508320973</v>
+        <v>0.002032458606831544</v>
       </c>
       <c r="M21" t="n">
-        <v>22.07256104125815</v>
+        <v>23.06304702909632</v>
       </c>
       <c r="N21" t="n">
-        <v>710.9991883920939</v>
+        <v>775.334830556106</v>
       </c>
       <c r="O21" t="n">
-        <v>26.66456803310517</v>
+        <v>27.84483489906352</v>
       </c>
       <c r="P21" t="n">
-        <v>342.3413280590449</v>
+        <v>340.0410048641061</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -36210,28 +36755,28 @@
         <v>0.0944</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3609215702861208</v>
+        <v>-0.1226688471814739</v>
       </c>
       <c r="J22" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K22" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008973561398338603</v>
+        <v>0.0009751434613894938</v>
       </c>
       <c r="M22" t="n">
-        <v>22.78128044290949</v>
+        <v>23.81431877294639</v>
       </c>
       <c r="N22" t="n">
-        <v>746.9992232245587</v>
+        <v>814.8251382965525</v>
       </c>
       <c r="O22" t="n">
-        <v>27.33128652706562</v>
+        <v>28.54514211379149</v>
       </c>
       <c r="P22" t="n">
-        <v>340.8110005632279</v>
+        <v>338.4485576783885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -36287,28 +36832,28 @@
         <v>0.09619999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2185163426721718</v>
+        <v>0.05509581440916762</v>
       </c>
       <c r="J23" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K23" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003000956731149529</v>
+        <v>0.0001777028214560161</v>
       </c>
       <c r="M23" t="n">
-        <v>23.62558799409707</v>
+        <v>24.81479354793739</v>
       </c>
       <c r="N23" t="n">
-        <v>800.960617479363</v>
+        <v>880.0259107225758</v>
       </c>
       <c r="O23" t="n">
-        <v>28.30124763114452</v>
+        <v>29.66523067030789</v>
       </c>
       <c r="P23" t="n">
-        <v>336.3129966950389</v>
+        <v>333.5715638306802</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -36364,28 +36909,28 @@
         <v>0.08790000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08195119409778497</v>
+        <v>0.2113890744934998</v>
       </c>
       <c r="J24" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K24" t="n">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003840181832303058</v>
+        <v>0.002351438304019959</v>
       </c>
       <c r="M24" t="n">
-        <v>25.02744861427611</v>
+        <v>26.36091553186775</v>
       </c>
       <c r="N24" t="n">
-        <v>900.6056484230871</v>
+        <v>995.8954307460909</v>
       </c>
       <c r="O24" t="n">
-        <v>30.01009244276144</v>
+        <v>31.55781093083123</v>
       </c>
       <c r="P24" t="n">
-        <v>332.5645745102823</v>
+        <v>329.6434986380826</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -36441,28 +36986,28 @@
         <v>0.0736</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3011471563753412</v>
+        <v>0.6573721034834498</v>
       </c>
       <c r="J25" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K25" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005022139711173601</v>
+        <v>0.02106455809364216</v>
       </c>
       <c r="M25" t="n">
-        <v>24.96896679676223</v>
+        <v>26.50197147293789</v>
       </c>
       <c r="N25" t="n">
-        <v>916.906522850141</v>
+        <v>1047.502884208842</v>
       </c>
       <c r="O25" t="n">
-        <v>30.28046437639524</v>
+        <v>32.3651492227186</v>
       </c>
       <c r="P25" t="n">
-        <v>327.1387793919748</v>
+        <v>323.5878068243139</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -36518,28 +37063,28 @@
         <v>0.11</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2691499964122461</v>
+        <v>0.6527005304723642</v>
       </c>
       <c r="J26" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K26" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003853858697212442</v>
+        <v>0.01924065579200906</v>
       </c>
       <c r="M26" t="n">
-        <v>25.44055801472092</v>
+        <v>27.31775431798282</v>
       </c>
       <c r="N26" t="n">
-        <v>978.7441248292141</v>
+        <v>1157.337609654355</v>
       </c>
       <c r="O26" t="n">
-        <v>31.28488652415435</v>
+        <v>34.01966504324161</v>
       </c>
       <c r="P26" t="n">
-        <v>328.8172281738619</v>
+        <v>325.0493708906206</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -36595,28 +37140,28 @@
         <v>0.09420000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2949610633046206</v>
+        <v>0.7930975639692265</v>
       </c>
       <c r="J27" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K27" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004306598172998943</v>
+        <v>0.02513302986150567</v>
       </c>
       <c r="M27" t="n">
-        <v>26.64353459159052</v>
+        <v>28.93058672386961</v>
       </c>
       <c r="N27" t="n">
-        <v>1069.369605027209</v>
+        <v>1331.123731424675</v>
       </c>
       <c r="O27" t="n">
-        <v>32.70121717959759</v>
+        <v>36.48456840123882</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5680923066378</v>
+        <v>326.9093307794026</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -36672,28 +37217,28 @@
         <v>0.07829999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5715159776804584</v>
+        <v>1.193155207095593</v>
       </c>
       <c r="J28" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K28" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01662721207643425</v>
+        <v>0.05318200969701403</v>
       </c>
       <c r="M28" t="n">
-        <v>25.61063239724681</v>
+        <v>28.47361543592587</v>
       </c>
       <c r="N28" t="n">
-        <v>998.1732834122292</v>
+        <v>1351.781074857671</v>
       </c>
       <c r="O28" t="n">
-        <v>31.5938804741081</v>
+        <v>36.7665755117018</v>
       </c>
       <c r="P28" t="n">
-        <v>328.0002025464462</v>
+        <v>322.2091294426506</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -36749,28 +37294,28 @@
         <v>0.0944</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8560843555038411</v>
+        <v>1.376036484442059</v>
       </c>
       <c r="J29" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K29" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02591432062743659</v>
+        <v>0.05497493987518753</v>
       </c>
       <c r="M29" t="n">
-        <v>31.14856002789354</v>
+        <v>33.30055710536675</v>
       </c>
       <c r="N29" t="n">
-        <v>1450.599188050376</v>
+        <v>1761.568921290483</v>
       </c>
       <c r="O29" t="n">
-        <v>38.08673244123702</v>
+        <v>41.97104860842153</v>
       </c>
       <c r="P29" t="n">
-        <v>329.7450808239088</v>
+        <v>325.1006422636259</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -36826,28 +37371,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9386168905389917</v>
+        <v>1.186970468736752</v>
       </c>
       <c r="J30" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K30" t="n">
         <v>156</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03239812289690225</v>
+        <v>0.04315395984700399</v>
       </c>
       <c r="M30" t="n">
-        <v>32.10338158544268</v>
+        <v>33.48998034260313</v>
       </c>
       <c r="N30" t="n">
-        <v>1416.719635164909</v>
+        <v>1685.312625362624</v>
       </c>
       <c r="O30" t="n">
-        <v>37.63933627423456</v>
+        <v>41.05255930344202</v>
       </c>
       <c r="P30" t="n">
-        <v>336.2522466235131</v>
+        <v>333.9822231790253</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -36903,28 +37448,28 @@
         <v>0.1059</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3947877458722552</v>
+        <v>1.291581265635608</v>
       </c>
       <c r="J31" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K31" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005856256183797481</v>
+        <v>0.04177176407949479</v>
       </c>
       <c r="M31" t="n">
-        <v>29.57778691175794</v>
+        <v>34.10834658140354</v>
       </c>
       <c r="N31" t="n">
-        <v>1284.674828794379</v>
+        <v>1931.644386997756</v>
       </c>
       <c r="O31" t="n">
-        <v>35.84236081502415</v>
+        <v>43.950476527539</v>
       </c>
       <c r="P31" t="n">
-        <v>333.3213107244616</v>
+        <v>325.0941403254409</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -36980,28 +37525,28 @@
         <v>0.1248</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04910226782046319</v>
+        <v>0.43541892016309</v>
       </c>
       <c r="J32" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K32" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L32" t="n">
-        <v>9.692922373627511e-05</v>
+        <v>0.007341542122724531</v>
       </c>
       <c r="M32" t="n">
-        <v>29.0000279122401</v>
+        <v>30.43928274489588</v>
       </c>
       <c r="N32" t="n">
-        <v>1277.095011298138</v>
+        <v>1375.040330022061</v>
       </c>
       <c r="O32" t="n">
-        <v>35.73646612772642</v>
+        <v>37.08153624139729</v>
       </c>
       <c r="P32" t="n">
-        <v>329.3114674383743</v>
+        <v>325.9216707257291</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -37038,7 +37583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG349"/>
+  <dimension ref="A1:AG354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82234,11 +82779,7 @@
           <t>-43.289292720948104,170.0481843441858</t>
         </is>
       </c>
-      <c r="AD347" t="inlineStr">
-        <is>
-          <t>-43.288666733781874,170.04834822725448</t>
-        </is>
-      </c>
+      <c r="AD347" t="inlineStr"/>
       <c r="AE347" t="inlineStr"/>
       <c r="AF347" t="inlineStr"/>
       <c r="AG347" t="inlineStr">
@@ -82393,11 +82934,7 @@
           <t>-43.28912350665901,170.0477385621978</t>
         </is>
       </c>
-      <c r="AD348" t="inlineStr">
-        <is>
-          <t>-43.288590272213426,170.04811315740952</t>
-        </is>
-      </c>
+      <c r="AD348" t="inlineStr"/>
       <c r="AE348" t="inlineStr"/>
       <c r="AF348" t="inlineStr">
         <is>
@@ -82566,6 +83103,789 @@
       <c r="AG349" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-43.303914508217666,170.03595695219795</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-43.30365275759415,170.03678008858864</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-43.303279829421186,170.03750322326158</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-43.30291245715468,170.03819036434075</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-43.30248807466167,170.03886649985085</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-43.30199158153251,170.0394675377096</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-43.30145006399357,170.03992570562355</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-43.300977917434544,170.04043804017846</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-43.300454357065405,170.04097428693115</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-43.29989564805046,170.041447580056</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-43.29931681064048,170.04183712887013</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-43.2988224220611,170.0423080483346</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-43.2982535243924,170.04266363861188</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-43.297648049077004,170.04300672631317</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-43.29704469339658,170.04335577589399</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-43.29647393183222,170.04378034723368</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-43.29588466146853,170.04414855270008</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-43.2953143038432,170.04459008907955</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-43.294700840922054,170.04490664883582</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-43.29409788553267,170.04525462529753</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-43.29349836952787,170.04561289713484</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>-43.29288164953707,170.04591977755635</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>-43.2922632971098,170.04623721426358</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>-43.29163482777728,170.04655798918873</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr"/>
+      <c r="AE350" t="inlineStr"/>
+      <c r="AF350" t="inlineStr"/>
+      <c r="AG350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:02+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-43.30373489233337,170.036826242638</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-43.30340561362669,170.03760138920967</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-43.30294926260733,170.03823032175077</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-43.30255887914916,170.0389470431822</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-43.30207394421698,170.03956122919382</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-43.301577367044494,170.04010848669913</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-43.30107009465177,170.0406059945524</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-43.300535889222346,170.0411232605551</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-43.2999783178408,170.04159863219067</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-43.2993866028494,170.04197516057866</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-43.29883647028746,170.0423423674612</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-43.29828473926553,170.04275119546745</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-43.297711678219855,170.043185204156</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-43.29712312325839,170.04357576898784</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-43.29653373366386,170.04395240014475</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-43.29593425782661,170.04429586042636</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-43.29535611820059,170.04471504049386</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-43.294753374021674,170.04506363008718</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-43.294167028069005,170.04546123928424</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-43.29354998816232,170.0457671452713</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>-43.292922720021224,170.04604250497198</t>
+        </is>
+      </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>-43.2923221419497,170.04640908136727</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>-43.29164656999861,170.04659017979156</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>-43.290964577634654,170.04676230346448</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>-43.29033168332836,170.0470371164643</t>
+        </is>
+      </c>
+      <c r="AB351" t="inlineStr">
+        <is>
+          <t>-43.289701464788216,170.04731899420977</t>
+        </is>
+      </c>
+      <c r="AC351" t="inlineStr"/>
+      <c r="AD351" t="inlineStr"/>
+      <c r="AE351" t="inlineStr">
+        <is>
+          <t>-43.28766371065558,170.0470329334118</t>
+        </is>
+      </c>
+      <c r="AF351" t="inlineStr"/>
+      <c r="AG351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-43.303803626033094,170.03589464520988</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-43.30367445670588,170.0367922819779</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-43.30328076752618,170.0375039553865</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-43.3028829140714,170.0381582912819</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-43.30242405296392,170.03879367246296</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-43.30193801114361,170.0394065990137</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-43.30142354766523,170.03988763375924</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-43.300955370108106,170.04039695726203</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-43.30045128139473,170.0409686671531</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-43.29987756692121,170.04141454277854</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-43.29929651145802,170.04179698223237</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-43.29880356398805,170.04226197905234</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-43.298241871551866,170.04263095278677</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-43.29765088733074,170.04301468750575</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-43.29704437405007,170.04335488014144</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-43.296476896153024,170.04378887571025</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-43.29588189913434,170.0441403482264</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-43.295289105225876,170.04451478979183</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-43.2946718570538,170.04482003861006</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>-43.2940825105453,170.04520868147023</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>-43.293481605876636,170.04556280374675</t>
+        </is>
+      </c>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>-43.29287763070005,170.04590776843895</t>
+        </is>
+      </c>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>-43.292249157977515,170.04619591850465</t>
+        </is>
+      </c>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>-43.29156596036881,170.04636919401477</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>-43.290947732141824,170.04671792522322</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr">
+        <is>
+          <t>-43.290292761364185,170.04693457999255</t>
+        </is>
+      </c>
+      <c r="AB352" t="inlineStr">
+        <is>
+          <t>-43.28963615780538,170.04714694981945</t>
+        </is>
+      </c>
+      <c r="AC352" t="inlineStr">
+        <is>
+          <t>-43.2891088859604,170.04770004542164</t>
+        </is>
+      </c>
+      <c r="AD352" t="inlineStr"/>
+      <c r="AE352" t="inlineStr"/>
+      <c r="AF352" t="inlineStr">
+        <is>
+          <t>-43.287655975002025,170.04958039534228</t>
+        </is>
+      </c>
+      <c r="AG352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-43.303751015256616,170.0358650822106</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-43.30374929365929,170.03683433520155</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-43.30341155495461,170.03760602602</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-43.302998618558235,170.03828390455956</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-43.30252538025834,170.0389089366367</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-43.30202874856775,170.03950981694487</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-43.301589538443864,170.04012596239326</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-43.30104135498928,170.0405536284531</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-43.30048835130273,170.04103640030573</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-43.2999117572204,170.04147701426132</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-43.29937538625508,170.04195297688958</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-43.29882380048876,170.04231141576386</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>-43.298265787494415,170.04269803624112</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>-43.29768663277642,170.04311495230033</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>-43.29709878844421,170.0435075104771</t>
+        </is>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>-43.29651672109925,170.04390345402248</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>-43.29593625423314,170.04430179003373</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>-43.29533805321505,170.0446610578772</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>-43.29470734979065,170.04492609881635</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>-43.29409547535395,170.0452474231509</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>-43.29346457985336,170.0455119264287</t>
+        </is>
+      </c>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>-43.29287586633218,170.04590249614404</t>
+        </is>
+      </c>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>-43.29227115250349,170.04626015731375</t>
+        </is>
+      </c>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>-43.291617724246,170.04651110093852</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>-43.29092578318666,170.04666010238017</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr">
+        <is>
+          <t>-43.29019309583788,170.04667202165558</t>
+        </is>
+      </c>
+      <c r="AB353" t="inlineStr">
+        <is>
+          <t>-43.289508115564814,170.04680963898255</t>
+        </is>
+      </c>
+      <c r="AC353" t="inlineStr">
+        <is>
+          <t>-43.2888043378965,170.04689775563443</t>
+        </is>
+      </c>
+      <c r="AD353" t="inlineStr">
+        <is>
+          <t>-43.28826338672191,170.04710821914298</t>
+        </is>
+      </c>
+      <c r="AE353" t="inlineStr">
+        <is>
+          <t>-43.28778422741313,170.04747874357386</t>
+        </is>
+      </c>
+      <c r="AF353" t="inlineStr">
+        <is>
+          <t>-43.28748337806655,170.04893364378304</t>
+        </is>
+      </c>
+      <c r="AG353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-43.303606210719956,170.03578371405018</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-43.303637995537976,170.0367717933465</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-43.30329749706428,170.03751701161823</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-43.30289877849662,170.03817551428102</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-43.30245256857941,170.03882611015644</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-43.30194188703839,170.03941100801137</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-43.301455715012835,170.03993381930383</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-43.300969460687206,170.04042263134525</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-43.30043029128444,170.04093031464802</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-43.29986872256738,170.04139838266337</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-43.299311569389424,170.0418267629989</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-43.298818741365515,170.04229905658283</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>-43.298262830263006,170.04268974129283</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>-43.29765598255102,170.04302897940843</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>-43.297061981155785,170.04340426732185</t>
+        </is>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>-43.296481883943635,170.0438032258011</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>-43.29589530900593,170.04418017722395</t>
+        </is>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>-43.295290042210524,170.04451758971462</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>-43.29464562160114,170.04474164149644</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>-43.294042333107974,170.045088622859</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>-43.293465308010774,170.0455141023134</t>
+        </is>
+      </c>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>-43.2928465235917,170.0458148141352</t>
+        </is>
+      </c>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>-43.29218499850937,170.04600853056002</t>
+        </is>
+      </c>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>-43.29152154211977,170.04624742516785</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>-43.29085524760153,170.04647428256956</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr">
+        <is>
+          <t>-43.29019890784097,170.04668733269972</t>
+        </is>
+      </c>
+      <c r="AB354" t="inlineStr">
+        <is>
+          <t>-43.289538030898555,170.04688844673075</t>
+        </is>
+      </c>
+      <c r="AC354" t="inlineStr">
+        <is>
+          <t>-43.28890454275765,170.04716172900876</t>
+        </is>
+      </c>
+      <c r="AD354" t="inlineStr">
+        <is>
+          <t>-43.288345743344685,170.0473614031199</t>
+        </is>
+      </c>
+      <c r="AE354" t="inlineStr">
+        <is>
+          <t>-43.287868214289226,170.04778942883254</t>
+        </is>
+      </c>
+      <c r="AF354" t="inlineStr">
+        <is>
+          <t>-43.287503524851196,170.0490091364999</t>
+        </is>
+      </c>
+      <c r="AG354" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0428/nzd0428.xlsx
+++ b/data/nzd0428/nzd0428.xlsx
@@ -35670,13 +35670,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0618</v>
+        <v>0.1059</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1066</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7479184727546249</v>
@@ -35748,13 +35748,13 @@
         <v>0.9666540547998943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0534</v>
+        <v>0.1019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0743</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-1.004851861487813</v>
@@ -35826,13 +35826,13 @@
         <v>0.9333081095996639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0432</v>
+        <v>0.0659</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0609</v>
+        <v>0.0868</v>
       </c>
       <c r="I4" t="n">
         <v>-0.9465996280155381</v>
@@ -35904,13 +35904,13 @@
         <v>0.9001596775672576</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0444</v>
+        <v>0.0572</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0623</v>
+        <v>0.0727</v>
       </c>
       <c r="I5" t="n">
         <v>-0.8681636530852604</v>
@@ -35982,13 +35982,13 @@
         <v>0.8668137323667469</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0445</v>
+        <v>0.0604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0638</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>-0.9041921701593993</v>
@@ -36060,13 +36060,13 @@
         <v>0.8334677871662362</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0418</v>
+        <v>0.0591</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0634</v>
+        <v>0.0867</v>
       </c>
       <c r="I7" t="n">
         <v>-1.058050109079461</v>
@@ -36138,13 +36138,13 @@
         <v>0.8001218419664582</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0326</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0522</v>
+        <v>0.1099</v>
       </c>
       <c r="I8" t="n">
         <v>-0.7432305020027571</v>
@@ -36216,13 +36216,13 @@
         <v>0.7667863060048711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0376</v>
+        <v>0.0554</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0545</v>
+        <v>0.0877</v>
       </c>
       <c r="I9" t="n">
         <v>-0.7957457408256845</v>
@@ -36294,13 +36294,13 @@
         <v>0.7334403608050186</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0424</v>
+        <v>0.054</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0673</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.9639906311897891</v>
@@ -36372,13 +36372,13 @@
         <v>0.7000944156051662</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0446</v>
+        <v>0.053</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0771</v>
+        <v>0.0862</v>
       </c>
       <c r="I11" t="n">
         <v>-0.8498241513626615</v>
@@ -36450,13 +36450,13 @@
         <v>0.6667484704048449</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0459</v>
+        <v>0.0603</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0772</v>
+        <v>0.1058</v>
       </c>
       <c r="I12" t="n">
         <v>-0.857321342089531</v>
@@ -36528,13 +36528,13 @@
         <v>0.633545283139147</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0565</v>
+        <v>0.0567</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1021</v>
+        <v>0.0833</v>
       </c>
       <c r="I13" t="n">
         <v>-0.9334055458389762</v>
@@ -36606,13 +36606,13 @@
         <v>0.6001993379393654</v>
       </c>
       <c r="F14" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0503</v>
+        <v>0.0615</v>
       </c>
       <c r="H14" t="n">
-        <v>0.083</v>
+        <v>0.0907</v>
       </c>
       <c r="I14" t="n">
         <v>-0.8429726676940508</v>
@@ -36684,13 +36684,13 @@
         <v>0.5668533927395838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0456</v>
+        <v>0.065</v>
       </c>
       <c r="H15" t="n">
-        <v>0.075</v>
+        <v>0.1018</v>
       </c>
       <c r="I15" t="n">
         <v>-0.6361297477174011</v>
@@ -36762,13 +36762,13 @@
         <v>0.5335074475392835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0468</v>
+        <v>0.0733</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0698</v>
+        <v>0.1183</v>
       </c>
       <c r="I16" t="n">
         <v>-0.5816063050586869</v>
@@ -36840,13 +36840,13 @@
         <v>0.5001615023392654</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G17" t="n">
-        <v>0.052</v>
+        <v>0.0757</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0785</v>
+        <v>0.1188</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4727605635926686</v>
@@ -36918,13 +36918,13 @@
         <v>0.4668170857438441</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.135</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0489</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4264497764338669</v>
@@ -36996,13 +36996,13 @@
         <v>0.4334711405437688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0514</v>
+        <v>0.0696</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.1021</v>
       </c>
       <c r="I19" t="n">
         <v>-0.1954460628074712</v>
@@ -37074,13 +37074,13 @@
         <v>0.4001251953436936</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0496</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.1809</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1162820191775522</v>
@@ -37152,13 +37152,13 @@
         <v>0.3667792501433332</v>
       </c>
       <c r="F21" t="n">
-        <v>0.065</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0543</v>
+        <v>0.1225</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>0.01443694936837834</v>
@@ -37230,13 +37230,13 @@
         <v>0.3334333049434636</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0536</v>
+        <v>0.1027</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0944</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
         <v>0.0798146830679872</v>
@@ -37308,13 +37308,13 @@
         <v>0.3000873597433884</v>
       </c>
       <c r="F23" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0498</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09619999999999999</v>
+        <v>0.1187</v>
       </c>
       <c r="I23" t="n">
         <v>0.3090494461915681</v>
@@ -37386,13 +37386,13 @@
         <v>0.2667414145435188</v>
       </c>
       <c r="F24" t="n">
-        <v>0.065</v>
+        <v>0.125</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0494</v>
+        <v>0.0864</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
         <v>0.4920921705707188</v>
@@ -37464,13 +37464,13 @@
         <v>0.233404847939798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.055</v>
+        <v>0.165</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0447</v>
+        <v>0.0982</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0736</v>
+        <v>0.2</v>
       </c>
       <c r="I25" t="n">
         <v>0.979280074529608</v>
@@ -37542,13 +37542,13 @@
         <v>0.2000589027395638</v>
       </c>
       <c r="F26" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0574</v>
+        <v>0.1122</v>
       </c>
       <c r="H26" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
         <v>0.9730393065837478</v>
@@ -37620,13 +37620,13 @@
         <v>0.1667129575393297</v>
       </c>
       <c r="F27" t="n">
-        <v>0.065</v>
+        <v>0.15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0501</v>
+        <v>0.0901</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="n">
         <v>1.032040672678051</v>
@@ -37698,13 +37698,13 @@
         <v>0.1333670123390955</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0455</v>
+        <v>0.1295</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07829999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
         <v>1.458904390153491</v>
@@ -37776,13 +37776,13 @@
         <v>0.1000210671391294</v>
       </c>
       <c r="F29" t="n">
-        <v>0.065</v>
+        <v>0.135</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0509</v>
+        <v>0.0707</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0944</v>
+        <v>0.2</v>
       </c>
       <c r="I29" t="n">
         <v>1.69447770176667</v>
@@ -37854,13 +37854,13 @@
         <v>0.06667512193889524</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0471</v>
+        <v>0.0491</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I30" t="n">
         <v>0.8022177932754347</v>
@@ -37932,13 +37932,13 @@
         <v>0.03334594520001619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0537</v>
+        <v>0.0395</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1059</v>
+        <v>0.1045</v>
       </c>
       <c r="I31" t="n">
         <v>1.492680403584345</v>
@@ -38010,13 +38010,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0588</v>
+        <v>0.0537</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1248</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
         <v>0.1505736608147404</v>
